--- a/multiple_question.xlsx
+++ b/multiple_question.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B1175-799A-4E27-8E65-767209381C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261C90E0-7EB7-4524-9CE3-5402F003AB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,28 +876,7 @@
     <t>导致利润率的平均化。利润率平均化的过程意味着(  )</t>
   </si>
   <si>
-    <t>73. 资本主义必然为社会主义所代替,并不意味着资本主义将在短期内自行消亡。资本主义向社会主义的过渡必然是一个复杂的、长期的历史过程,其原因在于(  )</t>
-  </si>
-  <si>
-    <t>73. 资本主义必然为社会主义所代替,并不意味着资本主义将在短期内自行消</t>
-  </si>
-  <si>
-    <t>亡。资本主义向社会主义的过渡必然是一个复杂的、长期的历史过程,其原</t>
-  </si>
-  <si>
     <t>因在于(  )</t>
-  </si>
-  <si>
-    <t>74. 习近平指出:“当代中国的伟大社会变革,不是简单延续我国历史文化的母版，不是简单套用马克思主义经典作家设想的模板,不是其他国家社会主义实践的再现，不是国外现代化发展的翻版,”这对我们理解科学社会主义一般原则的启示是(   )</t>
-  </si>
-  <si>
-    <t>74. 习近平指出:“当代中国的伟大社会变革,不是简单延续我国历史文化的</t>
-  </si>
-  <si>
-    <t>母版，不是简单套用马克思主义经典作家设想的模板,不是其他国家社会主</t>
-  </si>
-  <si>
-    <t>义实践的再现，不是国外现代化发展的翻版,”这对我们理解科学社会主义</t>
   </si>
   <si>
     <t>一般原则的启示是(   )</t>
@@ -1089,6 +1068,34 @@
   </si>
   <si>
     <t>”。这两种方法（  ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73. 资本主义必然为社会主义所代替，并不意味着资本主义将在短期内自行消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73. 资本主义必然为社会主义所代替，并不意味着资本主义将在短期内自行消亡。资本主义向社会主义的过渡必然是一个复杂的、长期的历史过程，其原因在于(  )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡。资本主义向社会主义的过渡必然是一个复杂的、长期的历史过程，其原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74. 习近平指出：“当代中国的伟大社会变革，不是简单延续我国历史文化的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74. 习近平指出：“当代中国的伟大社会变革，不是简单延续我国历史文化的母版，不是简单套用马克思主义经典作家设想的模板，不是其他国家社会主义实践的再现，不是国外现代化发展的翻。”这对我们理解科学社会主义一般原则的启示是(   )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母版，不是简单套用马克思主义经典作家设想的模板，不是其他国家社会主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义实践的再现，不是国外现代化发展的翻版。”这对我们理解科学社会主义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1479,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1541,16 +1548,16 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1573,13 +1580,13 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1596,19 +1603,19 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1619,25 +1626,25 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1648,25 +1655,25 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1677,25 +1684,25 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1709,22 +1716,22 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1738,22 +1745,22 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1770,19 +1777,19 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1811,7 +1818,7 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1828,19 +1835,19 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1851,25 +1858,25 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F13" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G13" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H13" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I13" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1883,22 +1890,22 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1915,19 +1922,19 @@
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F15" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G15" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H15" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I15" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1947,16 +1954,16 @@
         <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G16" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H16" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I16" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1973,48 +1980,48 @@
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G17" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H17" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I17" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D18" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E18" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F18" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G18" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H18" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I18" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2022,28 +2029,28 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C19" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E19" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G19" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H19" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I19" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2072,7 +2079,7 @@
         <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2095,13 +2102,13 @@
         <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2118,19 +2125,19 @@
         <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F22" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G22" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H22" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I22" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2144,22 +2151,22 @@
         <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E23" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F23" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G23" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H23" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I23" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2188,7 +2195,7 @@
         <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2211,13 +2218,13 @@
         <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H25" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I25" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2269,13 +2276,13 @@
         <v>117</v>
       </c>
       <c r="G27" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H27" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I27" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2292,19 +2299,19 @@
         <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F28" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G28" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H28" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I28" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2318,22 +2325,22 @@
         <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E29" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F29" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G29" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H29" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I29" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2353,16 +2360,16 @@
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G30" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H30" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I30" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2385,13 +2392,13 @@
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H31" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I31" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2414,13 +2421,13 @@
         <v>140</v>
       </c>
       <c r="G32" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H32" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I32" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2440,16 +2447,16 @@
         <v>145</v>
       </c>
       <c r="F33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2472,13 +2479,13 @@
         <v>151</v>
       </c>
       <c r="G34" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H34" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I34" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2486,28 +2493,28 @@
         <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C35" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D35" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E35" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F35" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G35" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H35" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I35" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2524,19 +2531,19 @@
         <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2553,19 +2560,19 @@
         <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H37" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I37" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2582,19 +2589,19 @@
         <v>164</v>
       </c>
       <c r="E38" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F38" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G38" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H38" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2611,19 +2618,19 @@
         <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G39" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H39" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I39" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2649,10 +2656,10 @@
         <v>175</v>
       </c>
       <c r="H40" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I40" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2666,22 +2673,22 @@
         <v>178</v>
       </c>
       <c r="D41" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E41" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G41" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H41" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I41" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2701,16 +2708,16 @@
         <v>183</v>
       </c>
       <c r="F42" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G42" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H42" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I42" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2736,10 +2743,10 @@
         <v>190</v>
       </c>
       <c r="H43" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2759,16 +2766,16 @@
         <v>195</v>
       </c>
       <c r="F44" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G44" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H44" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2782,22 +2789,22 @@
         <v>198</v>
       </c>
       <c r="D45" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E45" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G45" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H45" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I45" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2814,19 +2821,19 @@
         <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F46" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G46" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H46" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I46" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2843,19 +2850,19 @@
         <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H47" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I47" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2866,25 +2873,25 @@
         <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2898,22 +2905,22 @@
         <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E49" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F49" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H49" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I49" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2933,16 +2940,16 @@
         <v>215</v>
       </c>
       <c r="F50" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G50" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H50" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I50" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2956,22 +2963,22 @@
         <v>218</v>
       </c>
       <c r="D51" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E51" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G51" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H51" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I51" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2988,19 +2995,19 @@
         <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G52" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H52" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I52" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3043,22 +3050,22 @@
         <v>234</v>
       </c>
       <c r="D54" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E54" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F54" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G54" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H54" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I54" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3072,22 +3079,22 @@
         <v>237</v>
       </c>
       <c r="D55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3104,19 +3111,19 @@
         <v>241</v>
       </c>
       <c r="E56" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F56" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G56" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H56" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I56" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3133,19 +3140,19 @@
         <v>245</v>
       </c>
       <c r="E57" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F57" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G57" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H57" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I57" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3162,19 +3169,19 @@
         <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F58" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G58" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H58" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I58" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3191,19 +3198,19 @@
         <v>253</v>
       </c>
       <c r="E59" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F59" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G59" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H59" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I59" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3214,25 +3221,25 @@
         <v>254</v>
       </c>
       <c r="C60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3243,25 +3250,25 @@
         <v>255</v>
       </c>
       <c r="C61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3272,25 +3279,25 @@
         <v>256</v>
       </c>
       <c r="C62" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D62" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E62" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G62" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H62" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I62" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3301,25 +3308,25 @@
         <v>257</v>
       </c>
       <c r="C63" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D63" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E63" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F63" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G63" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H63" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I63" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3330,25 +3337,25 @@
         <v>258</v>
       </c>
       <c r="C64" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D64" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E64" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F64" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G64" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H64" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I64" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3362,22 +3369,22 @@
         <v>261</v>
       </c>
       <c r="D65" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E65" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F65" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G65" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H65" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I65" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3394,19 +3401,19 @@
         <v>265</v>
       </c>
       <c r="E66" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F66" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G66" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H66" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I66" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3417,25 +3424,25 @@
         <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D67" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E67" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F67" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G67" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H67" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I67" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3452,19 +3459,19 @@
         <v>269</v>
       </c>
       <c r="E68" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F68" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G68" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H68" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I68" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3478,22 +3485,22 @@
         <v>272</v>
       </c>
       <c r="D69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3504,25 +3511,25 @@
         <v>273</v>
       </c>
       <c r="C70" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D70" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E70" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F70" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G70" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H70" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I70" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3533,25 +3540,25 @@
         <v>274</v>
       </c>
       <c r="C71" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D71" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E71" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F71" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G71" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H71" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I71" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3568,19 +3575,19 @@
         <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F72" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G72" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H72" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I72" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3597,454 +3604,454 @@
         <v>282</v>
       </c>
       <c r="E73" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F73" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G73" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H73" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I73" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" t="s">
+        <v>345</v>
+      </c>
+      <c r="C74" t="s">
+        <v>347</v>
+      </c>
+      <c r="D74" t="s">
         <v>283</v>
       </c>
-      <c r="B74" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" t="s">
-        <v>285</v>
-      </c>
-      <c r="D74" t="s">
-        <v>286</v>
-      </c>
       <c r="E74" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F74" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G74" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H74" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I74" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="C75" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E75" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F75" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G75" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H75" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I75" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" t="s">
+        <v>287</v>
+      </c>
+      <c r="D76" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" t="s">
+        <v>289</v>
+      </c>
+      <c r="F76" t="s">
+        <v>290</v>
+      </c>
+      <c r="G76" t="s">
+        <v>291</v>
+      </c>
+      <c r="H76" t="s">
         <v>292</v>
       </c>
-      <c r="B76" t="s">
+      <c r="I76" t="s">
         <v>293</v>
-      </c>
-      <c r="C76" t="s">
-        <v>294</v>
-      </c>
-      <c r="D76" t="s">
-        <v>295</v>
-      </c>
-      <c r="E76" t="s">
-        <v>296</v>
-      </c>
-      <c r="F76" t="s">
-        <v>297</v>
-      </c>
-      <c r="G76" t="s">
-        <v>298</v>
-      </c>
-      <c r="H76" t="s">
-        <v>299</v>
-      </c>
-      <c r="I76" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C77" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D77" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E77" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F77" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G77" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H77" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I77" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B78" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D78" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F78" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G78" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H78" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I78" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C79" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D79" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E79" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F79" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G79" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I79" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C80" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D80" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E80" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F80" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G80" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H80" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I80" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B81" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D81" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E81" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F81" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G81" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H81" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I81" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D82" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E82" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F82" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G82" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H82" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I82" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C83" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D83" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E83" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F83" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G83" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H83" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I83" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C84" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D84" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E84" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F84" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G84" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H84" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I84" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B85" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C85" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E85" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F85" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G85" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H85" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I85" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B86" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C86" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D86" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E86" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F86" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G86" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H86" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I86" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B87" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C87" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D87" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E87" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F87" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G87" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H87" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I87" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B88" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C88" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D88" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E88" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F88" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G88" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H88" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I88" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
